--- a/data_year/zb/公共管理、社会保障及其他/人民检察院受理举报、控告和申诉案件情况.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院受理举报、控告和申诉案件情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,660 +518,495 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105111</v>
+        <v>209220</v>
       </c>
       <c r="C2" t="n">
-        <v>360604</v>
+        <v>357253</v>
       </c>
       <c r="D2" t="n">
-        <v>168502</v>
+        <v>158995</v>
       </c>
       <c r="E2" t="n">
-        <v>79470</v>
+        <v>75621</v>
       </c>
       <c r="F2" t="n">
-        <v>112632</v>
+        <v>122637</v>
       </c>
       <c r="G2" t="n">
-        <v>358707</v>
+        <v>353670</v>
       </c>
       <c r="H2" t="n">
-        <v>168325</v>
+        <v>157265</v>
       </c>
       <c r="I2" t="n">
-        <v>79273</v>
+        <v>74939</v>
       </c>
       <c r="J2" t="n">
-        <v>111109</v>
+        <v>121466</v>
       </c>
       <c r="K2" t="n">
-        <v>64119</v>
+        <v>119723</v>
       </c>
       <c r="L2" t="n">
-        <v>11913</v>
+        <v>10414</v>
       </c>
       <c r="M2" t="n">
-        <v>14166</v>
+        <v>26013</v>
       </c>
       <c r="N2" t="n">
-        <v>17861</v>
+        <v>30660</v>
       </c>
       <c r="O2" t="n">
-        <v>26826</v>
+        <v>63484</v>
       </c>
       <c r="P2" t="n">
-        <v>20185</v>
+        <v>25612</v>
       </c>
       <c r="Q2" t="n">
-        <v>49959</v>
+        <v>66686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>197373</v>
+        <v>231191</v>
       </c>
       <c r="C3" t="n">
-        <v>333231</v>
+        <v>382165</v>
       </c>
       <c r="D3" t="n">
-        <v>152763</v>
+        <v>192461</v>
       </c>
       <c r="E3" t="n">
-        <v>75167</v>
+        <v>70655</v>
       </c>
       <c r="F3" t="n">
-        <v>105301</v>
+        <v>119049</v>
       </c>
       <c r="G3" t="n">
-        <v>331752</v>
+        <v>379509</v>
       </c>
       <c r="H3" t="n">
-        <v>152513</v>
+        <v>192135</v>
       </c>
       <c r="I3" t="n">
-        <v>75150</v>
+        <v>70476</v>
       </c>
       <c r="J3" t="n">
-        <v>104089</v>
+        <v>116898</v>
       </c>
       <c r="K3" t="n">
-        <v>116035</v>
+        <v>140934</v>
       </c>
       <c r="L3" t="n">
-        <v>10559</v>
+        <v>24907</v>
       </c>
       <c r="M3" t="n">
-        <v>24887</v>
+        <v>25771</v>
       </c>
       <c r="N3" t="n">
-        <v>33806</v>
+        <v>27291</v>
       </c>
       <c r="O3" t="n">
-        <v>56451</v>
+        <v>64486</v>
       </c>
       <c r="P3" t="n">
-        <v>22805</v>
+        <v>23522</v>
       </c>
       <c r="Q3" t="n">
-        <v>67170</v>
+        <v>75720</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218180</v>
+        <v>185749</v>
       </c>
       <c r="C4" t="n">
-        <v>346504</v>
+        <v>323487</v>
       </c>
       <c r="D4" t="n">
-        <v>159822</v>
+        <v>130743</v>
       </c>
       <c r="E4" t="n">
-        <v>76484</v>
+        <v>71232</v>
       </c>
       <c r="F4" t="n">
-        <v>110198</v>
+        <v>121512</v>
       </c>
       <c r="G4" t="n">
-        <v>344378</v>
+        <v>319029</v>
       </c>
       <c r="H4" t="n">
-        <v>159213</v>
+        <v>130444</v>
       </c>
       <c r="I4" t="n">
-        <v>76209</v>
+        <v>70851</v>
       </c>
       <c r="J4" t="n">
-        <v>108956</v>
+        <v>117734</v>
       </c>
       <c r="K4" t="n">
-        <v>123065</v>
+        <v>95781</v>
       </c>
       <c r="L4" t="n">
-        <v>11118</v>
+        <v>8797</v>
       </c>
       <c r="M4" t="n">
-        <v>29140</v>
+        <v>25665</v>
       </c>
       <c r="N4" t="n">
-        <v>33048</v>
+        <v>26549</v>
       </c>
       <c r="O4" t="n">
-        <v>65975</v>
+        <v>64303</v>
       </c>
       <c r="P4" t="n">
-        <v>23080</v>
+        <v>19548</v>
       </c>
       <c r="Q4" t="n">
-        <v>67246</v>
+        <v>54894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>209220</v>
+        <v>203988</v>
       </c>
       <c r="C5" t="n">
-        <v>357253</v>
+        <v>378582</v>
       </c>
       <c r="D5" t="n">
-        <v>158995</v>
+        <v>140392</v>
       </c>
       <c r="E5" t="n">
-        <v>75621</v>
+        <v>75990</v>
       </c>
       <c r="F5" t="n">
-        <v>122637</v>
+        <v>162200</v>
       </c>
       <c r="G5" t="n">
-        <v>353670</v>
+        <v>365982</v>
       </c>
       <c r="H5" t="n">
-        <v>157265</v>
+        <v>137280</v>
       </c>
       <c r="I5" t="n">
-        <v>74939</v>
+        <v>71288</v>
       </c>
       <c r="J5" t="n">
-        <v>121466</v>
+        <v>157414</v>
       </c>
       <c r="K5" t="n">
-        <v>119723</v>
+        <v>98402</v>
       </c>
       <c r="L5" t="n">
-        <v>10414</v>
+        <v>8491</v>
       </c>
       <c r="M5" t="n">
-        <v>26013</v>
+        <v>28995</v>
       </c>
       <c r="N5" t="n">
-        <v>30660</v>
+        <v>23930</v>
       </c>
       <c r="O5" t="n">
-        <v>63484</v>
+        <v>76591</v>
       </c>
       <c r="P5" t="n">
-        <v>25612</v>
+        <v>38810</v>
       </c>
       <c r="Q5" t="n">
-        <v>66686</v>
+        <v>71231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>231191</v>
+        <v>262869</v>
       </c>
       <c r="C6" t="n">
-        <v>382165</v>
+        <v>444094</v>
       </c>
       <c r="D6" t="n">
-        <v>192461</v>
+        <v>175869</v>
       </c>
       <c r="E6" t="n">
-        <v>70655</v>
+        <v>88986</v>
       </c>
       <c r="F6" t="n">
-        <v>119049</v>
+        <v>179239</v>
       </c>
       <c r="G6" t="n">
-        <v>379509</v>
+        <v>435438</v>
       </c>
       <c r="H6" t="n">
-        <v>192135</v>
+        <v>172955</v>
       </c>
       <c r="I6" t="n">
-        <v>70476</v>
+        <v>86028</v>
       </c>
       <c r="J6" t="n">
-        <v>116898</v>
+        <v>176455</v>
       </c>
       <c r="K6" t="n">
-        <v>140934</v>
+        <v>140972</v>
       </c>
       <c r="L6" t="n">
-        <v>24907</v>
+        <v>10756</v>
       </c>
       <c r="M6" t="n">
-        <v>25771</v>
+        <v>33438</v>
       </c>
       <c r="N6" t="n">
-        <v>27291</v>
+        <v>31372</v>
       </c>
       <c r="O6" t="n">
-        <v>64486</v>
+        <v>88459</v>
       </c>
       <c r="P6" t="n">
-        <v>23522</v>
+        <v>54445</v>
       </c>
       <c r="Q6" t="n">
-        <v>75720</v>
+        <v>96573</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185749</v>
+        <v>228685</v>
       </c>
       <c r="C7" t="n">
-        <v>323487</v>
+        <v>516634</v>
       </c>
       <c r="D7" t="n">
-        <v>130743</v>
+        <v>230801</v>
       </c>
       <c r="E7" t="n">
-        <v>71232</v>
+        <v>111731</v>
       </c>
       <c r="F7" t="n">
-        <v>121512</v>
+        <v>174102</v>
       </c>
       <c r="G7" t="n">
-        <v>319029</v>
+        <v>502145</v>
       </c>
       <c r="H7" t="n">
-        <v>130444</v>
+        <v>225621</v>
       </c>
       <c r="I7" t="n">
-        <v>70851</v>
+        <v>109413</v>
       </c>
       <c r="J7" t="n">
-        <v>117734</v>
+        <v>167111</v>
       </c>
       <c r="K7" t="n">
-        <v>95781</v>
+        <v>110286</v>
       </c>
       <c r="L7" t="n">
-        <v>8797</v>
+        <v>86283</v>
       </c>
       <c r="M7" t="n">
-        <v>25665</v>
+        <v>34855</v>
       </c>
       <c r="N7" t="n">
-        <v>26549</v>
+        <v>36157</v>
       </c>
       <c r="O7" t="n">
-        <v>64303</v>
+        <v>83544</v>
       </c>
       <c r="P7" t="n">
-        <v>19548</v>
+        <v>48399</v>
       </c>
       <c r="Q7" t="n">
-        <v>54894</v>
+        <v>170839</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>203988</v>
+        <v>242248</v>
       </c>
       <c r="C8" t="n">
-        <v>378582</v>
+        <v>497204</v>
       </c>
       <c r="D8" t="n">
-        <v>140392</v>
+        <v>188320</v>
       </c>
       <c r="E8" t="n">
-        <v>75990</v>
+        <v>126894</v>
       </c>
       <c r="F8" t="n">
-        <v>162200</v>
+        <v>181990</v>
       </c>
       <c r="G8" t="n">
-        <v>365982</v>
+        <v>488905</v>
       </c>
       <c r="H8" t="n">
-        <v>137280</v>
+        <v>185555</v>
       </c>
       <c r="I8" t="n">
-        <v>71288</v>
+        <v>124068</v>
       </c>
       <c r="J8" t="n">
-        <v>157414</v>
+        <v>179282</v>
       </c>
       <c r="K8" t="n">
-        <v>98402</v>
+        <v>106839</v>
       </c>
       <c r="L8" t="n">
-        <v>8491</v>
+        <v>23089</v>
       </c>
       <c r="M8" t="n">
-        <v>28995</v>
+        <v>35161</v>
       </c>
       <c r="N8" t="n">
-        <v>23930</v>
+        <v>36886</v>
       </c>
       <c r="O8" t="n">
-        <v>76591</v>
+        <v>100248</v>
       </c>
       <c r="P8" t="n">
-        <v>38810</v>
+        <v>45150</v>
       </c>
       <c r="Q8" t="n">
-        <v>71231</v>
+        <v>105125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>262869</v>
+        <v>175781</v>
       </c>
       <c r="C9" t="n">
-        <v>444094</v>
+        <v>260495</v>
       </c>
       <c r="D9" t="n">
-        <v>175869</v>
+        <v>64615</v>
       </c>
       <c r="E9" t="n">
-        <v>88986</v>
+        <v>37472</v>
       </c>
       <c r="F9" t="n">
-        <v>179239</v>
+        <v>158408</v>
       </c>
       <c r="G9" t="n">
-        <v>435438</v>
+        <v>252197</v>
       </c>
       <c r="H9" t="n">
-        <v>172955</v>
+        <v>62328</v>
       </c>
       <c r="I9" t="n">
-        <v>86028</v>
+        <v>36677</v>
       </c>
       <c r="J9" t="n">
-        <v>176455</v>
+        <v>153192</v>
       </c>
       <c r="K9" t="n">
-        <v>140972</v>
+        <v>48122</v>
       </c>
       <c r="L9" t="n">
-        <v>10756</v>
+        <v>8285</v>
       </c>
       <c r="M9" t="n">
-        <v>33438</v>
+        <v>15487</v>
       </c>
       <c r="N9" t="n">
-        <v>31372</v>
+        <v>10226</v>
       </c>
       <c r="O9" t="n">
-        <v>88459</v>
+        <v>112172</v>
       </c>
       <c r="P9" t="n">
-        <v>54445</v>
+        <v>5361</v>
       </c>
       <c r="Q9" t="n">
-        <v>96573</v>
+        <v>23872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>228685</v>
+        <v>224333</v>
       </c>
       <c r="C10" t="n">
-        <v>516634</v>
+        <v>248893</v>
       </c>
       <c r="D10" t="n">
-        <v>230801</v>
+        <v>19483</v>
       </c>
       <c r="E10" t="n">
-        <v>111731</v>
+        <v>25995</v>
       </c>
       <c r="F10" t="n">
-        <v>174102</v>
+        <v>203415</v>
       </c>
       <c r="G10" t="n">
-        <v>502145</v>
+        <v>243020</v>
       </c>
       <c r="H10" t="n">
-        <v>225621</v>
+        <v>18671</v>
       </c>
       <c r="I10" t="n">
-        <v>109413</v>
+        <v>25409</v>
       </c>
       <c r="J10" t="n">
-        <v>167111</v>
+        <v>198940</v>
       </c>
       <c r="K10" t="n">
-        <v>110286</v>
+        <v>9333</v>
       </c>
       <c r="L10" t="n">
-        <v>86283</v>
+        <v>9338</v>
       </c>
       <c r="M10" t="n">
-        <v>34855</v>
+        <v>19950</v>
       </c>
       <c r="N10" t="n">
-        <v>36157</v>
+        <v>5459</v>
       </c>
       <c r="O10" t="n">
-        <v>83544</v>
+        <v>195050</v>
       </c>
       <c r="P10" t="n">
-        <v>48399</v>
+        <v>3890</v>
       </c>
       <c r="Q10" t="n">
-        <v>170839</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>242248</v>
-      </c>
-      <c r="C11" t="n">
-        <v>497204</v>
-      </c>
-      <c r="D11" t="n">
-        <v>188320</v>
-      </c>
-      <c r="E11" t="n">
-        <v>126894</v>
-      </c>
-      <c r="F11" t="n">
-        <v>181990</v>
-      </c>
-      <c r="G11" t="n">
-        <v>488905</v>
-      </c>
-      <c r="H11" t="n">
-        <v>185555</v>
-      </c>
-      <c r="I11" t="n">
-        <v>124068</v>
-      </c>
-      <c r="J11" t="n">
-        <v>179282</v>
-      </c>
-      <c r="K11" t="n">
-        <v>106839</v>
-      </c>
-      <c r="L11" t="n">
-        <v>23089</v>
-      </c>
-      <c r="M11" t="n">
-        <v>35161</v>
-      </c>
-      <c r="N11" t="n">
-        <v>36886</v>
-      </c>
-      <c r="O11" t="n">
-        <v>100248</v>
-      </c>
-      <c r="P11" t="n">
-        <v>45150</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>105125</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>175781</v>
-      </c>
-      <c r="C12" t="n">
-        <v>260495</v>
-      </c>
-      <c r="D12" t="n">
-        <v>64615</v>
-      </c>
-      <c r="E12" t="n">
-        <v>37472</v>
-      </c>
-      <c r="F12" t="n">
-        <v>158408</v>
-      </c>
-      <c r="G12" t="n">
-        <v>252197</v>
-      </c>
-      <c r="H12" t="n">
-        <v>62328</v>
-      </c>
-      <c r="I12" t="n">
-        <v>36677</v>
-      </c>
-      <c r="J12" t="n">
-        <v>153192</v>
-      </c>
-      <c r="K12" t="n">
-        <v>48122</v>
-      </c>
-      <c r="L12" t="n">
-        <v>8285</v>
-      </c>
-      <c r="M12" t="n">
-        <v>15487</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10226</v>
-      </c>
-      <c r="O12" t="n">
-        <v>112172</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5361</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>23872</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>224333</v>
-      </c>
-      <c r="C13" t="n">
-        <v>248893</v>
-      </c>
-      <c r="D13" t="n">
-        <v>19483</v>
-      </c>
-      <c r="E13" t="n">
-        <v>25995</v>
-      </c>
-      <c r="F13" t="n">
-        <v>203415</v>
-      </c>
-      <c r="G13" t="n">
-        <v>243020</v>
-      </c>
-      <c r="H13" t="n">
-        <v>18671</v>
-      </c>
-      <c r="I13" t="n">
-        <v>25409</v>
-      </c>
-      <c r="J13" t="n">
-        <v>198940</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9333</v>
-      </c>
-      <c r="L13" t="n">
-        <v>9338</v>
-      </c>
-      <c r="M13" t="n">
-        <v>19950</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5459</v>
-      </c>
-      <c r="O13" t="n">
-        <v>195050</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3890</v>
-      </c>
-      <c r="Q13" t="n">
         <v>18687</v>
       </c>
     </row>
